--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2394.088621098473</v>
+        <v>1839.060030442771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383183</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.55797803456366</v>
+        <v>13.44641299045078</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.59659904919993</v>
+        <v>10.68883997447806</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2360.750000000005</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>13.39818852545001</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152298</v>
+        <v>2.717738030053667</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>5.206834251576652</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.44641299045079</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.20683425157665</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,10 +1141,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1210,10 +1155,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1224,10 +1169,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1238,10 +1183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1252,43 +1197,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>259.0849999999991</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>261.4150000000003</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>258.4150000000003</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>261.75</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>255.4899999999991</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0449999999997</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.22499999999971</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.52499999999971</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>49.26499999999971</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>132.1149999999988</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.765</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>121.56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>134.495</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0099999999988</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>259.0849999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>261.4150000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>258.4150000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>261.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>255.4899999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>159.0849999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>161.4150000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>158.4150000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>161.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>155.4899999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>77.61500000000086</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81000000000085</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.46500000000086</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>77.19999999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13000000000088</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -2024,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -2046,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2057,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2079,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2101,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2112,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2123,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2134,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2145,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2156,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2167,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2178,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2222,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2329,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2340,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2351,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2362,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2373,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2384,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2395,7 +2312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2406,7 +2323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2417,34 +2334,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
